--- a/results_final/ei_HL.xlsx
+++ b/results_final/ei_HL.xlsx
@@ -611,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.560826639597812</v>
+        <v>1.560826639597811</v>
       </c>
       <c r="C3">
         <v>1.242580578481868</v>
@@ -620,88 +620,88 @@
         <v>1.012039502711086</v>
       </c>
       <c r="E3">
-        <v>0.8413623568474429</v>
+        <v>0.8413623568474422</v>
       </c>
       <c r="F3">
-        <v>0.7125086302461746</v>
+        <v>0.7125086302461739</v>
       </c>
       <c r="G3">
-        <v>0.6135026960143923</v>
+        <v>0.6135026960143917</v>
       </c>
       <c r="H3">
-        <v>0.5362165170135346</v>
+        <v>0.5362165170135339</v>
       </c>
       <c r="I3">
-        <v>0.4750195982409883</v>
+        <v>0.4750195982409877</v>
       </c>
       <c r="J3">
-        <v>0.4259373598155746</v>
+        <v>0.425937359815574</v>
       </c>
       <c r="K3">
-        <v>0.3861148638312751</v>
+        <v>0.3861148638312745</v>
       </c>
       <c r="L3">
-        <v>0.353468101939206</v>
+        <v>0.3534681019392055</v>
       </c>
       <c r="M3">
-        <v>0.3264529251463121</v>
+        <v>0.3264529251463116</v>
       </c>
       <c r="N3">
-        <v>0.303909214002525</v>
+        <v>0.3039092140025245</v>
       </c>
       <c r="O3">
-        <v>0.2849540539855712</v>
+        <v>0.2849540539855707</v>
       </c>
       <c r="P3">
-        <v>0.2689073762943207</v>
+        <v>0.2689073762943202</v>
       </c>
       <c r="Q3">
-        <v>0.2552394518049728</v>
+        <v>0.2552394518049723</v>
       </c>
       <c r="R3">
-        <v>0.2435333159974115</v>
+        <v>0.2435333159974111</v>
       </c>
       <c r="S3">
-        <v>0.2334575391646758</v>
+        <v>0.2334575391646755</v>
       </c>
       <c r="T3">
-        <v>0.2247462595064351</v>
+        <v>0.2247462595064348</v>
       </c>
       <c r="U3">
-        <v>0.2171843785846415</v>
+        <v>0.2171843785846412</v>
       </c>
       <c r="V3">
-        <v>0.2105964691102384</v>
+        <v>0.210596469110238</v>
       </c>
       <c r="W3">
-        <v>0.2048383817976895</v>
+        <v>0.2048383817976892</v>
       </c>
       <c r="X3">
-        <v>0.1997908350319816</v>
+        <v>0.1997908350319812</v>
       </c>
       <c r="Y3">
-        <v>0.1953544755006273</v>
+        <v>0.195354475500627</v>
       </c>
       <c r="Z3">
-        <v>0.1914460402300956</v>
+        <v>0.1914460402300952</v>
       </c>
       <c r="AA3">
-        <v>0.1879953505844307</v>
+        <v>0.1879953505844304</v>
       </c>
       <c r="AB3">
-        <v>0.1849429399550788</v>
+        <v>0.1849429399550785</v>
       </c>
       <c r="AC3">
-        <v>0.1822381679583204</v>
+        <v>0.1822381679583201</v>
       </c>
       <c r="AD3">
-        <v>0.1798377109677136</v>
+        <v>0.1798377109677132</v>
       </c>
       <c r="AE3">
-        <v>0.1777043458584017</v>
+        <v>0.1777043458584013</v>
       </c>
       <c r="AF3">
-        <v>0.1758059637748912</v>
+        <v>0.1758059637748909</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -1199,97 +1199,97 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.127814202433856</v>
+        <v>2.127814202433855</v>
       </c>
       <c r="C9">
         <v>1.564657177444222</v>
       </c>
       <c r="D9">
-        <v>1.18646830390356</v>
+        <v>1.186468303903561</v>
       </c>
       <c r="E9">
-        <v>0.9249311166572324</v>
+        <v>0.924931116657233</v>
       </c>
       <c r="F9">
-        <v>0.7392261386865344</v>
+        <v>0.7392261386865352</v>
       </c>
       <c r="G9">
-        <v>0.604196836612713</v>
+        <v>0.6041968366127138</v>
       </c>
       <c r="H9">
-        <v>0.5038943236523621</v>
+        <v>0.5038943236523629</v>
       </c>
       <c r="I9">
-        <v>0.4279414788434237</v>
+        <v>0.4279414788434245</v>
       </c>
       <c r="J9">
-        <v>0.3694237466015118</v>
+        <v>0.3694237466015126</v>
       </c>
       <c r="K9">
-        <v>0.3236318019330905</v>
+        <v>0.3236318019330913</v>
       </c>
       <c r="L9">
-        <v>0.2872929282198182</v>
+        <v>0.2872929282198189</v>
       </c>
       <c r="M9">
-        <v>0.2580900762655885</v>
+        <v>0.2580900762655892</v>
       </c>
       <c r="N9">
-        <v>0.2343543607309819</v>
+        <v>0.2343543607309826</v>
       </c>
       <c r="O9">
-        <v>0.2148644662071074</v>
+        <v>0.214864466207108</v>
       </c>
       <c r="P9">
-        <v>0.1987133306220725</v>
+        <v>0.1987133306220731</v>
       </c>
       <c r="Q9">
-        <v>0.1852179896238425</v>
+        <v>0.1852179896238431</v>
       </c>
       <c r="R9">
-        <v>0.173857613182351</v>
+        <v>0.1738576131823515</v>
       </c>
       <c r="S9">
-        <v>0.1642302694600262</v>
+        <v>0.1642302694600268</v>
       </c>
       <c r="T9">
-        <v>0.1560223261618056</v>
+        <v>0.1560223261618062</v>
       </c>
       <c r="U9">
-        <v>0.148986506722126</v>
+        <v>0.1489865067221266</v>
       </c>
       <c r="V9">
-        <v>0.1429259565050811</v>
+        <v>0.1429259565050816</v>
       </c>
       <c r="W9">
-        <v>0.1376825371184644</v>
+        <v>0.1376825371184649</v>
       </c>
       <c r="X9">
-        <v>0.1331281319121204</v>
+        <v>0.1331281319121209</v>
       </c>
       <c r="Y9">
-        <v>0.1291581208665545</v>
+        <v>0.129158120866555</v>
       </c>
       <c r="Z9">
-        <v>0.1256864354973677</v>
+        <v>0.1256864354973682</v>
       </c>
       <c r="AA9">
-        <v>0.1226417763960282</v>
+        <v>0.1226417763960287</v>
       </c>
       <c r="AB9">
-        <v>0.1199646946246296</v>
+        <v>0.1199646946246301</v>
       </c>
       <c r="AC9">
-        <v>0.1176053208863881</v>
+        <v>0.1176053208863885</v>
       </c>
       <c r="AD9">
-        <v>0.1155215846872475</v>
+        <v>0.115521584687248</v>
       </c>
       <c r="AE9">
-        <v>0.1136778072107721</v>
+        <v>0.1136778072107726</v>
       </c>
       <c r="AF9">
-        <v>0.1120435814686163</v>
+        <v>0.1120435814686168</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1300,94 +1300,94 @@
         <v>1.411902709128922</v>
       </c>
       <c r="C10">
-        <v>0.9678782929456794</v>
+        <v>0.967878292945679</v>
       </c>
       <c r="D10">
-        <v>0.6890252388513597</v>
+        <v>0.6890252388513591</v>
       </c>
       <c r="E10">
-        <v>0.5074673118818418</v>
+        <v>0.5074673118818414</v>
       </c>
       <c r="F10">
-        <v>0.3853574157791981</v>
+        <v>0.3853574157791977</v>
       </c>
       <c r="G10">
-        <v>0.3007972104024735</v>
+        <v>0.3007972104024731</v>
       </c>
       <c r="H10">
-        <v>0.2406815941178432</v>
+        <v>0.2406815941178428</v>
       </c>
       <c r="I10">
-        <v>0.1969223667734152</v>
+        <v>0.1969223667734148</v>
       </c>
       <c r="J10">
-        <v>0.1643849286968761</v>
+        <v>0.1643849286968757</v>
       </c>
       <c r="K10">
-        <v>0.1397243999823787</v>
+        <v>0.1397243999823784</v>
       </c>
       <c r="L10">
-        <v>0.1207095090128815</v>
+        <v>0.1207095090128812</v>
       </c>
       <c r="M10">
-        <v>0.1058190334912718</v>
+        <v>0.1058190334912715</v>
       </c>
       <c r="N10">
-        <v>0.09399480839959626</v>
+        <v>0.09399480839959601</v>
       </c>
       <c r="O10">
-        <v>0.0844870090326357</v>
+        <v>0.08448700903263547</v>
       </c>
       <c r="P10">
-        <v>0.07675512752538793</v>
+        <v>0.07675512752538771</v>
       </c>
       <c r="Q10">
-        <v>0.07040331573567916</v>
+        <v>0.07040331573567896</v>
       </c>
       <c r="R10">
-        <v>0.06513737569873453</v>
+        <v>0.06513737569873433</v>
       </c>
       <c r="S10">
-        <v>0.06073565047678686</v>
+        <v>0.06073565047678667</v>
       </c>
       <c r="T10">
-        <v>0.05702900230409094</v>
+        <v>0.05702900230409075</v>
       </c>
       <c r="U10">
-        <v>0.05388683196411336</v>
+        <v>0.0538868319641132</v>
       </c>
       <c r="V10">
-        <v>0.05120717793430387</v>
+        <v>0.05120717793430371</v>
       </c>
       <c r="W10">
-        <v>0.04890961153385825</v>
+        <v>0.04890961153385809</v>
       </c>
       <c r="X10">
-        <v>0.04693007492225605</v>
+        <v>0.04693007492225589</v>
       </c>
       <c r="Y10">
-        <v>0.04521708676023282</v>
+        <v>0.04521708676023267</v>
       </c>
       <c r="Z10">
-        <v>0.04372892246097045</v>
+        <v>0.04372892246097031</v>
       </c>
       <c r="AA10">
-        <v>0.04243149696389921</v>
+        <v>0.04243149696389907</v>
       </c>
       <c r="AB10">
-        <v>0.04129675943606044</v>
+        <v>0.0412967594360603</v>
       </c>
       <c r="AC10">
-        <v>0.04030146485337074</v>
+        <v>0.04030146485337061</v>
       </c>
       <c r="AD10">
-        <v>0.03942622573789154</v>
+        <v>0.03942622573789142</v>
       </c>
       <c r="AE10">
-        <v>0.03865477406676152</v>
+        <v>0.03865477406676139</v>
       </c>
       <c r="AF10">
-        <v>0.03797338222530533</v>
+        <v>0.03797338222530521</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1395,97 +1395,97 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.507308620165567</v>
+        <v>1.507308620165566</v>
       </c>
       <c r="C11">
         <v>1.365761454906526</v>
       </c>
       <c r="D11">
-        <v>1.249770455320155</v>
+        <v>1.249770455320156</v>
       </c>
       <c r="E11">
-        <v>1.153825453953738</v>
+        <v>1.153825453953739</v>
       </c>
       <c r="F11">
-        <v>1.073789099853375</v>
+        <v>1.073789099853376</v>
       </c>
       <c r="G11">
-        <v>1.006514368690974</v>
+        <v>1.006514368690975</v>
       </c>
       <c r="H11">
-        <v>0.9495784900252776</v>
+        <v>0.9495784900252786</v>
       </c>
       <c r="I11">
-        <v>0.901095184240859</v>
+        <v>0.9010951842408601</v>
       </c>
       <c r="J11">
-        <v>0.8595803697882186</v>
+        <v>0.8595803697882197</v>
       </c>
       <c r="K11">
-        <v>0.8238548964712691</v>
+        <v>0.8238548964712702</v>
       </c>
       <c r="L11">
-        <v>0.7929732581898935</v>
+        <v>0.7929732581898945</v>
       </c>
       <c r="M11">
-        <v>0.7661707617743919</v>
+        <v>0.7661707617743929</v>
       </c>
       <c r="N11">
-        <v>0.7428239612584031</v>
+        <v>0.7428239612584041</v>
       </c>
       <c r="O11">
-        <v>0.7224207323205555</v>
+        <v>0.7224207323205565</v>
       </c>
       <c r="P11">
-        <v>0.7045374255281908</v>
+        <v>0.7045374255281919</v>
       </c>
       <c r="Q11">
-        <v>0.688821268843218</v>
+        <v>0.6888212688432191</v>
       </c>
       <c r="R11">
-        <v>0.6749766990212578</v>
+        <v>0.6749766990212589</v>
       </c>
       <c r="S11">
-        <v>0.662754659641265</v>
+        <v>0.6627546596412662</v>
       </c>
       <c r="T11">
-        <v>0.6519441579583508</v>
+        <v>0.6519441579583519</v>
       </c>
       <c r="U11">
-        <v>0.6423655553469251</v>
+        <v>0.6423655553469261</v>
       </c>
       <c r="V11">
-        <v>0.6338651983175461</v>
+        <v>0.6338651983175471</v>
       </c>
       <c r="W11">
-        <v>0.6263110936845666</v>
+        <v>0.6263110936845677</v>
       </c>
       <c r="X11">
-        <v>0.6195894026232208</v>
+        <v>0.6195894026232219</v>
       </c>
       <c r="Y11">
-        <v>0.6136015811992125</v>
+        <v>0.6136015811992136</v>
       </c>
       <c r="Z11">
-        <v>0.6082620344945893</v>
+        <v>0.6082620344945905</v>
       </c>
       <c r="AA11">
-        <v>0.6034961812543516</v>
+        <v>0.6034961812543528</v>
       </c>
       <c r="AB11">
-        <v>0.5992388485932639</v>
+        <v>0.5992388485932651</v>
       </c>
       <c r="AC11">
-        <v>0.5954329335774038</v>
+        <v>0.595432933577405</v>
       </c>
       <c r="AD11">
-        <v>0.5920282817739917</v>
+        <v>0.5920282817739929</v>
       </c>
       <c r="AE11">
-        <v>0.588980743131738</v>
+        <v>0.5889807431317392</v>
       </c>
       <c r="AF11">
-        <v>0.5862513735404304</v>
+        <v>0.5862513735404317</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1496,94 +1496,94 @@
         <v>2.434219760368954</v>
       </c>
       <c r="C12">
-        <v>2.071510060701156</v>
+        <v>2.071510060701155</v>
       </c>
       <c r="D12">
-        <v>1.791519682234283</v>
+        <v>1.791519682234282</v>
       </c>
       <c r="E12">
-        <v>1.572036650932539</v>
+        <v>1.572036650932538</v>
       </c>
       <c r="F12">
-        <v>1.397589541404607</v>
+        <v>1.397589541404606</v>
       </c>
       <c r="G12">
-        <v>1.257201583815379</v>
+        <v>1.257201583815378</v>
       </c>
       <c r="H12">
-        <v>1.142951150579508</v>
+        <v>1.142951150579507</v>
       </c>
       <c r="I12">
-        <v>1.049030569166241</v>
+        <v>1.04903056916624</v>
       </c>
       <c r="J12">
-        <v>0.9711192682029555</v>
+        <v>0.9711192682029545</v>
       </c>
       <c r="K12">
-        <v>0.905959024918214</v>
+        <v>0.905959024918213</v>
       </c>
       <c r="L12">
-        <v>0.8510614945927775</v>
+        <v>0.8510614945927766</v>
       </c>
       <c r="M12">
-        <v>0.8045037804168348</v>
+        <v>0.8045037804168339</v>
       </c>
       <c r="N12">
-        <v>0.7647835217631066</v>
+        <v>0.7647835217631058</v>
       </c>
       <c r="O12">
-        <v>0.7307148129450604</v>
+        <v>0.7307148129450596</v>
       </c>
       <c r="P12">
-        <v>0.7013525201940872</v>
+        <v>0.7013525201940864</v>
       </c>
       <c r="Q12">
-        <v>0.6759366069807734</v>
+        <v>0.6759366069807726</v>
       </c>
       <c r="R12">
-        <v>0.6538507289598992</v>
+        <v>0.6538507289598984</v>
       </c>
       <c r="S12">
-        <v>0.6345911230156699</v>
+        <v>0.6345911230156691</v>
       </c>
       <c r="T12">
-        <v>0.6177430031119271</v>
+        <v>0.6177430031119263</v>
       </c>
       <c r="U12">
-        <v>0.6029624864653859</v>
+        <v>0.6029624864653851</v>
       </c>
       <c r="V12">
-        <v>0.5899626334135625</v>
+        <v>0.5899626334135617</v>
       </c>
       <c r="W12">
-        <v>0.5785025752722708</v>
+        <v>0.57850257527227</v>
       </c>
       <c r="X12">
-        <v>0.5683789803577939</v>
+        <v>0.5683789803577932</v>
       </c>
       <c r="Y12">
-        <v>0.5594193050138148</v>
+        <v>0.5594193050138141</v>
       </c>
       <c r="Z12">
-        <v>0.5514764180269756</v>
+        <v>0.5514764180269749</v>
       </c>
       <c r="AA12">
-        <v>0.5444242896178771</v>
+        <v>0.5444242896178765</v>
       </c>
       <c r="AB12">
-        <v>0.5381545115085614</v>
+        <v>0.5381545115085608</v>
       </c>
       <c r="AC12">
-        <v>0.5325734701992622</v>
+        <v>0.5325734701992615</v>
       </c>
       <c r="AD12">
-        <v>0.527600037003412</v>
+        <v>0.5276000370034113</v>
       </c>
       <c r="AE12">
-        <v>0.5231636694539104</v>
+        <v>0.5231636694539097</v>
       </c>
       <c r="AF12">
-        <v>0.5192028421592807</v>
+        <v>0.51920284215928</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1594,94 +1594,94 @@
         <v>1.294687646522454</v>
       </c>
       <c r="C13">
-        <v>1.335384803242595</v>
+        <v>1.335384803242596</v>
       </c>
       <c r="D13">
-        <v>1.373104886170786</v>
+        <v>1.373104886170788</v>
       </c>
       <c r="E13">
-        <v>1.407963081524483</v>
+        <v>1.407963081524486</v>
       </c>
       <c r="F13">
-        <v>1.440091431727953</v>
+        <v>1.440091431727957</v>
       </c>
       <c r="G13">
-        <v>1.469633305861132</v>
+        <v>1.469633305861136</v>
       </c>
       <c r="H13">
-        <v>1.496738786238962</v>
+        <v>1.496738786238967</v>
       </c>
       <c r="I13">
-        <v>1.521560893363109</v>
+        <v>1.521560893363114</v>
       </c>
       <c r="J13">
-        <v>1.544252559398826</v>
+        <v>1.544252559398831</v>
       </c>
       <c r="K13">
-        <v>1.564964256292408</v>
+        <v>1.564964256292414</v>
       </c>
       <c r="L13">
-        <v>1.58384218619843</v>
+        <v>1.583842186198437</v>
       </c>
       <c r="M13">
-        <v>1.601026947091507</v>
+        <v>1.601026947091513</v>
       </c>
       <c r="N13">
-        <v>1.616652593819022</v>
+        <v>1.616652593819029</v>
       </c>
       <c r="O13">
-        <v>1.630846023324998</v>
+        <v>1.630846023325005</v>
       </c>
       <c r="P13">
-        <v>1.643726621574456</v>
+        <v>1.643726621574463</v>
       </c>
       <c r="Q13">
-        <v>1.655406118314958</v>
+        <v>1.655406118314966</v>
       </c>
       <c r="R13">
-        <v>1.665988603899369</v>
+        <v>1.665988603899377</v>
       </c>
       <c r="S13">
-        <v>1.675570669773047</v>
+        <v>1.675570669773055</v>
       </c>
       <c r="T13">
-        <v>1.684241640811182</v>
+        <v>1.68424164081119</v>
       </c>
       <c r="U13">
-        <v>1.692083873457978</v>
+        <v>1.692083873457986</v>
       </c>
       <c r="V13">
-        <v>1.699173098594336</v>
+        <v>1.699173098594344</v>
       </c>
       <c r="W13">
-        <v>1.705578792297417</v>
+        <v>1.705578792297426</v>
       </c>
       <c r="X13">
-        <v>1.711364561222284</v>
+        <v>1.711364561222293</v>
       </c>
       <c r="Y13">
-        <v>1.716588532307113</v>
+        <v>1.716588532307122</v>
       </c>
       <c r="Z13">
-        <v>1.721303738954469</v>
+        <v>1.721303738954478</v>
       </c>
       <c r="AA13">
-        <v>1.725558497843593</v>
+        <v>1.725558497843602</v>
       </c>
       <c r="AB13">
-        <v>1.729396772149235</v>
+        <v>1.729396772149244</v>
       </c>
       <c r="AC13">
-        <v>1.732858518241108</v>
+        <v>1.732858518241116</v>
       </c>
       <c r="AD13">
-        <v>1.735980013967681</v>
+        <v>1.73598001396769</v>
       </c>
       <c r="AE13">
-        <v>1.738794167434971</v>
+        <v>1.73879416743498</v>
       </c>
       <c r="AF13">
-        <v>1.741330805814925</v>
+        <v>1.741330805814934</v>
       </c>
     </row>
   </sheetData>
